--- a/biology/Botanique/Jean-Claude_Baudet/Jean-Claude_Baudet.xlsx
+++ b/biology/Botanique/Jean-Claude_Baudet/Jean-Claude_Baudet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Claude Baudet[1], est un botaniste, philosophe, écrivain et poète belge né à Bruxelles le 31 mai 1944 et mort à Laeken le 18 juillet 2021[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude Baudet, est un botaniste, philosophe, écrivain et poète belge né à Bruxelles le 31 mai 1944 et mort à Laeken le 18 juillet 2021.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une double formation en chimie et en philosophie, Jean C. Baudet enseigne l'histoire des sciences et la philosophie au Congo ex-belge (de 1966 à 1968) puis au Burundi (de 1968 à 1973). Tout en poursuivant son enseignement, il étudie la biologie à l'Université de Bujumbura. De 1973 à 1978, il est chercheur en biologie, à la Faculté agronomique de Gembloux et à l'Université Paris-VI. En 1978, il revient à la philosophie et fonde à Bruxelles la revue Technologia, consacrée à l'histoire des sciences, des techniques et de l'industrie. Depuis 1996, Jean-Claude Baudet est membre de la rédaction de la Revue Générale (Bruxelles).[réf. souhaitée]
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En tant que biologiste, J.-C. Baudet a surtout travaillé sur la taxonomie, la chimiotaxonomie et la génétique de la tribu botanique des Phaseoleae. On lui doit la découverte des « ancêtres » des haricots, notamment Phaseolus lunatus L. var. silvester Baudet. Il a également étudié les graminées vivrières (céréales).
 En tant que philosophe, J.-C. Baudet étudie le problème de la connaissance selon l'approche de l'épistémologie historique (à ne pas confondre avec l'épistémologie génétique de Jean Piaget). Il a spécialement mis en évidence le lien entre science et technique dans la constitution des savoirs. Son "analyse des discours" distingue quatre périodes : les discours de plaisir (poésie), de souffrance (mythes), d'ordre (idéologies et droit), et les discours contre les discours, c'est-à-dire la philosophie et la science. Il a développé les concepts d'éditologie et de « science-technique-industrie » (STI).
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ouvrages
-Les céréales mineures, ACCT, Paris, 1981.
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les céréales mineures, ACCT, Paris, 1981.
 Les ingénieurs belges, APPS, Bruxelles, 1986.
 Introduction à l'histoire des ingénieurs, APPS, Bruxelles, 1987.
 Nouvel abrégé d'histoire des mathématiques, Vuibert, Paris, 2002.
@@ -616,9 +637,43 @@
 Les plus grandes dates de la science, La Boîte à Pandore, Paris, 2016.
 Histoire des techniques, Vuibert, Paris, 2016.
 Les plus grandes dates de la philosophie, La Boîte à Pandore, Paris, 2016.
-Histoire de la chimie, De Boeck, Louvain-la-Neuve, 2017.
-Autres publications
-Bibliographie complète sur le site de Jean C. Baudet.</t>
+Histoire de la chimie, De Boeck, Louvain-la-Neuve, 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Baudet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Baudet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bibliographie complète sur le site de Jean C. Baudet.</t>
         </is>
       </c>
     </row>
